--- a/Atividade 2 - Lista de variáveis _C.xlsx
+++ b/Atividade 2 - Lista de variáveis _C.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="457">
   <si>
     <t>Class</t>
   </si>
@@ -1769,6 +1769,297 @@
   </si>
   <si>
     <t>Used to receive the result from the search for a receipt on DB</t>
+  </si>
+  <si>
+    <t>AgendaControllerTeste.java</t>
+  </si>
+  <si>
+    <t>PhonebookControllerTest.java</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance of class 'Agenda.java' used to test </t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Initialize the atributes of 'contact'(refers to instance above)</t>
+    </r>
+  </si>
+  <si>
+    <t>barberException</t>
+  </si>
+  <si>
+    <t>contactController</t>
+  </si>
+  <si>
+    <t>Instantiated to get access to the methods of class 'AgendaController'</t>
+  </si>
+  <si>
+    <t>getInstanceDeAgendaControllerDeveRetornarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>inserirDeAgendaControllerDeveEnviarUm</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a inclusion of a contact was made right (check the return of method 'inserir')</t>
+    </r>
+  </si>
+  <si>
+    <t>excluirDeAgendaControllerDeveEnviarUmaAgenda</t>
+  </si>
+  <si>
+    <t>includeContactMethodTest</t>
+  </si>
+  <si>
+    <t>deleteContactMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a exclusion of a contact was made right (check the return of method 'excluir')</t>
+    </r>
+  </si>
+  <si>
+    <t>alterarDeAgendaControllerDeveEnviarUmaAgendaAlterada</t>
+  </si>
+  <si>
+    <t>modifyContactMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a modification of a contact was made right (check the return of method 'alterar')</t>
+    </r>
+  </si>
+  <si>
+    <t>inserirAgendaNaoPodePassarAgendaNullo</t>
+  </si>
+  <si>
+    <t>includeContactMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if the method 'inserir' don't accept null argument</t>
+    </r>
+  </si>
+  <si>
+    <t>excluirAgendaNaoPodePassarAgendaNullo</t>
+  </si>
+  <si>
+    <t>deleteContactMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if the method 'excluir' don't accept null argument</t>
+    </r>
+  </si>
+  <si>
+    <t>alterarAgendaNaoPodePassarAgendaNullo</t>
+  </si>
+  <si>
+    <t>modifyContactMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if the method 'alterar' don't accept null argument</t>
+    </r>
+  </si>
+  <si>
+    <t>mostrarContatosDeAgendaControllerDeveMostrarUmContato</t>
+  </si>
+  <si>
+    <t>showRegisteredContactsTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'mostrarContatosCadastrados'</t>
+    </r>
+  </si>
+  <si>
+    <t>queryForContactsResult</t>
+  </si>
+  <si>
+    <t>pesquisarPorNomeDeAgendaControllerDeveMostrarUmContato</t>
+  </si>
+  <si>
+    <t>searchContactsByNameTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'pesquisaPorNome'</t>
+    </r>
+  </si>
+  <si>
+    <t>Used to receive the result from the search for contacts on DB</t>
+  </si>
+  <si>
+    <t>pesquisarPorTelefoneDeAgendaControllerDeveMostrarUmContato</t>
+  </si>
+  <si>
+    <t>searchContactsByPhoneTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'pesquisaPorTelefone'</t>
+    </r>
+  </si>
+  <si>
+    <t>ReciboDAOTeste.java</t>
+  </si>
+  <si>
+    <t>ReceiptDAOTest.java</t>
+  </si>
+  <si>
+    <t>Instance variable used to test</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Initialize the atributes of 'report'(refers to instance above)</t>
+    </r>
+  </si>
+  <si>
+    <t>reportException</t>
+  </si>
+  <si>
+    <t>reciboDAO</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>pesquisarPorDataEBArbeiroDAODeveMostrarUmRecibo</t>
+  </si>
+  <si>
+    <t>Instantiated to get access to the method 'pesquisarServicosDoBarbeiro' of class 'ReciboDAO.java'</t>
+  </si>
+  <si>
+    <t>searchBarberServicesMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'pesquisaSerivcosDoBarbeiro' (if returns the right services of a barber)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2357,13 +2648,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2384,19 +2672,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2417,7 +2708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2426,7 +2717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2435,10 +2726,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2737,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="C32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -2775,10 +3066,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -2798,8 +3089,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="7" t="s">
         <v>196</v>
       </c>
@@ -2817,12 +3108,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -2836,10 +3127,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="5" t="s">
         <v>201</v>
       </c>
@@ -2851,10 +3142,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="5" t="s">
         <v>204</v>
       </c>
@@ -2866,10 +3157,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="5" t="s">
         <v>206</v>
       </c>
@@ -2881,10 +3172,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="5" t="s">
         <v>197</v>
       </c>
@@ -2896,10 +3187,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>210</v>
       </c>
@@ -2911,10 +3202,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="5" t="s">
         <v>214</v>
       </c>
@@ -2935,10 +3226,10 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>289</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2958,12 +3249,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2977,10 +3268,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
         <v>233</v>
       </c>
@@ -2992,12 +3283,12 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="30" t="s">
         <v>294</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -3011,10 +3302,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="5" t="s">
         <v>295</v>
       </c>
@@ -3026,10 +3317,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="5" t="s">
         <v>299</v>
       </c>
@@ -3041,10 +3332,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5" t="s">
         <v>304</v>
       </c>
@@ -3056,10 +3347,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
         <v>305</v>
       </c>
@@ -3071,10 +3362,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="5" t="s">
         <v>310</v>
       </c>
@@ -3086,10 +3377,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>311</v>
       </c>
@@ -3101,10 +3392,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5" t="s">
         <v>314</v>
       </c>
@@ -3116,10 +3407,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>317</v>
       </c>
@@ -3131,10 +3422,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="5" t="s">
         <v>320</v>
       </c>
@@ -3146,10 +3437,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="5" t="s">
         <v>322</v>
       </c>
@@ -3161,10 +3452,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="5" t="s">
         <v>325</v>
       </c>
@@ -3176,10 +3467,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="5" t="s">
         <v>233</v>
       </c>
@@ -3200,16 +3491,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3223,10 +3514,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="5" t="s">
         <v>331</v>
       </c>
@@ -3238,10 +3529,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="28"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="5" t="s">
         <v>332</v>
       </c>
@@ -3253,10 +3544,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5" t="s">
         <v>333</v>
       </c>
@@ -3268,10 +3559,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3283,12 +3574,12 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -3302,10 +3593,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="5" t="s">
         <v>233</v>
       </c>
@@ -3317,12 +3608,12 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="21" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="30" t="s">
         <v>345</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -3336,10 +3627,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="5" t="s">
         <v>346</v>
       </c>
@@ -3351,10 +3642,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="28"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="5" t="s">
         <v>347</v>
       </c>
@@ -3366,10 +3657,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="28"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="5" t="s">
         <v>348</v>
       </c>
@@ -3381,10 +3672,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="5" t="s">
         <v>355</v>
       </c>
@@ -3396,10 +3687,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="5" t="s">
         <v>358</v>
       </c>
@@ -3411,10 +3702,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="5" t="s">
         <v>76</v>
       </c>
@@ -3426,10 +3717,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="28"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="5" t="s">
         <v>233</v>
       </c>
@@ -3441,10 +3732,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="5" t="s">
         <v>233</v>
       </c>
@@ -3456,10 +3747,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="28"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="5" t="s">
         <v>367</v>
       </c>
@@ -3471,10 +3762,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="28"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="5" t="s">
         <v>374</v>
       </c>
@@ -3486,10 +3777,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="28"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="5" t="s">
         <v>376</v>
       </c>
@@ -3501,10 +3792,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="5" t="s">
         <v>377</v>
       </c>
@@ -3516,10 +3807,10 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="5" t="s">
         <v>378</v>
       </c>
@@ -3531,10 +3822,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="28"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="5" t="s">
         <v>379</v>
       </c>
@@ -3546,10 +3837,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="5" t="s">
         <v>317</v>
       </c>
@@ -3561,10 +3852,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="28"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="5" t="s">
         <v>320</v>
       </c>
@@ -3576,12 +3867,12 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="28"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="32" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="21" t="s">
         <v>382</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3595,10 +3886,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="29"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="5" t="s">
         <v>383</v>
       </c>
@@ -3899,6 +4190,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D15:D27"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="B12:B27"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B29:B54"/>
@@ -3909,16 +4210,6 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D36:D52"/>
     <mergeCell ref="C36:C52"/>
-    <mergeCell ref="D15:D27"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3929,7 +4220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -3966,10 +4257,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -3989,10 +4280,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="5" t="s">
         <v>90</v>
       </c>
@@ -4004,10 +4295,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -4019,10 +4310,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
@@ -4034,10 +4325,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>92</v>
       </c>
@@ -4049,10 +4340,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>93</v>
       </c>
@@ -4064,10 +4355,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
@@ -4079,10 +4370,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
@@ -4094,12 +4385,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="30" t="s">
         <v>109</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -4113,10 +4404,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="5" t="s">
         <v>89</v>
       </c>
@@ -4128,10 +4419,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4143,10 +4434,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
@@ -4158,10 +4449,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
@@ -4173,8 +4464,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="10" t="s">
         <v>108</v>
       </c>
@@ -4192,8 +4483,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="7" t="s">
         <v>111</v>
       </c>
@@ -4211,12 +4502,12 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4230,10 +4521,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
@@ -4245,10 +4536,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="5" t="s">
         <v>119</v>
       </c>
@@ -4260,10 +4551,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="5" t="s">
         <v>122</v>
       </c>
@@ -4275,10 +4566,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="5" t="s">
         <v>124</v>
       </c>
@@ -4290,8 +4581,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="7" t="s">
         <v>127</v>
       </c>
@@ -4309,12 +4600,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="32" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="21" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -4328,10 +4619,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="28"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>117</v>
       </c>
@@ -4343,10 +4634,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="28"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="5" t="s">
         <v>119</v>
       </c>
@@ -4358,10 +4649,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="28"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="5" t="s">
         <v>122</v>
       </c>
@@ -4373,10 +4664,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="28"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
@@ -4388,8 +4679,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="28"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
         <v>136</v>
       </c>
@@ -4407,8 +4698,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="28"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7" t="s">
         <v>137</v>
       </c>
@@ -4426,8 +4717,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="28"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4445,8 +4736,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="28"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="7" t="s">
         <v>143</v>
       </c>
@@ -4464,12 +4755,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="32" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="21" t="s">
         <v>149</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4483,10 +4774,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="5" t="s">
         <v>151</v>
       </c>
@@ -4498,10 +4789,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="5" t="s">
         <v>117</v>
       </c>
@@ -4513,10 +4804,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="5" t="s">
         <v>124</v>
       </c>
@@ -4528,10 +4819,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="5" t="s">
         <v>122</v>
       </c>
@@ -4543,10 +4834,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="5" t="s">
         <v>154</v>
       </c>
@@ -4567,16 +4858,16 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="32" t="s">
+      <c r="C39" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4590,10 +4881,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
       <c r="E40" s="5" t="s">
         <v>161</v>
       </c>
@@ -4605,10 +4896,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="28"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
       <c r="E41" s="5" t="s">
         <v>162</v>
       </c>
@@ -4620,10 +4911,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="28"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="5" t="s">
         <v>163</v>
       </c>
@@ -4635,10 +4926,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="28"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="5" t="s">
         <v>164</v>
       </c>
@@ -4650,10 +4941,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="5" t="s">
         <v>165</v>
       </c>
@@ -4665,8 +4956,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="28"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="10" t="s">
         <v>157</v>
       </c>
@@ -4684,8 +4975,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="28"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="5" t="s">
         <v>175</v>
       </c>
@@ -4703,8 +4994,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="28"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
@@ -4722,8 +5013,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="5" t="s">
         <v>177</v>
       </c>
@@ -4741,8 +5032,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="5" t="s">
         <v>184</v>
       </c>
@@ -4760,8 +5051,8 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="28"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="5" t="s">
         <v>185</v>
       </c>
@@ -4779,8 +5070,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="26"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="5" t="s">
         <v>186</v>
       </c>
@@ -5055,7 +5346,7 @@
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5076,11 +5367,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -5095,9 +5386,9 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5110,11 +5401,11 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -5129,9 +5420,9 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -5144,9 +5435,9 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="36"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
@@ -5159,9 +5450,9 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5174,11 +5465,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="36"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="32" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5193,9 +5484,9 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
@@ -5208,7 +5499,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36"/>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
@@ -5227,11 +5518,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5246,9 +5537,9 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
@@ -5261,11 +5552,11 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -5280,9 +5571,9 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="37"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
@@ -5470,7 +5761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -5530,10 +5821,10 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5553,8 +5844,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
@@ -5572,8 +5863,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5591,12 +5882,12 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="21" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5610,10 +5901,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
@@ -5625,12 +5916,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="32" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="21" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5644,10 +5935,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
@@ -5659,12 +5950,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="21" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5678,10 +5969,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
@@ -5693,10 +5984,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="5" t="s">
         <v>73</v>
       </c>
@@ -5708,10 +5999,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="28"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="5" t="s">
         <v>75</v>
       </c>
@@ -5723,10 +6014,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="5" t="s">
         <v>76</v>
       </c>
@@ -5738,12 +6029,12 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -5757,10 +6048,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
@@ -5772,10 +6063,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="28"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="5" t="s">
         <v>73</v>
       </c>
@@ -5787,10 +6078,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
         <v>75</v>
       </c>
@@ -5802,12 +6093,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -5821,10 +6112,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="11" t="s">
         <v>44</v>
       </c>
@@ -5836,10 +6127,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
@@ -5851,10 +6142,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
@@ -6094,10 +6385,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:G44"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6134,10 +6425,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="48" t="s">
         <v>218</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6159,10 +6450,10 @@
     <row r="3" spans="1:7">
       <c r="A3" s="45"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="21" t="s">
         <v>221</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6178,8 +6469,8 @@
     <row r="4" spans="1:7">
       <c r="A4" s="45"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="5" t="s">
         <v>223</v>
       </c>
@@ -6250,10 +6541,10 @@
     <row r="8" spans="1:7">
       <c r="A8" s="45"/>
       <c r="B8" s="42"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -6269,8 +6560,8 @@
     <row r="9" spans="1:7">
       <c r="A9" s="45"/>
       <c r="B9" s="42"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="5" t="s">
         <v>233</v>
       </c>
@@ -6341,10 +6632,10 @@
     <row r="13" spans="1:7">
       <c r="A13" s="45"/>
       <c r="B13" s="42"/>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="21" t="s">
         <v>252</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6360,8 +6651,8 @@
     <row r="14" spans="1:7">
       <c r="A14" s="45"/>
       <c r="B14" s="42"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="5" t="s">
         <v>233</v>
       </c>
@@ -6432,10 +6723,10 @@
     <row r="18" spans="1:7">
       <c r="A18" s="45"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="21" t="s">
         <v>263</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -6451,8 +6742,8 @@
     <row r="19" spans="1:7">
       <c r="A19" s="45"/>
       <c r="B19" s="42"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="5" t="s">
         <v>233</v>
       </c>
@@ -6466,10 +6757,10 @@
     <row r="20" spans="1:7">
       <c r="A20" s="45"/>
       <c r="B20" s="42"/>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="21" t="s">
         <v>266</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -6485,8 +6776,8 @@
     <row r="21" spans="1:7">
       <c r="A21" s="45"/>
       <c r="B21" s="42"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="5" t="s">
         <v>233</v>
       </c>
@@ -6500,8 +6791,8 @@
     <row r="22" spans="1:7">
       <c r="A22" s="45"/>
       <c r="B22" s="42"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="5" t="s">
         <v>233</v>
       </c>
@@ -6515,10 +6806,10 @@
     <row r="23" spans="1:7">
       <c r="A23" s="45"/>
       <c r="B23" s="42"/>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="21" t="s">
         <v>274</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -6534,8 +6825,8 @@
     <row r="24" spans="1:7">
       <c r="A24" s="45"/>
       <c r="B24" s="42"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="5" t="s">
         <v>233</v>
       </c>
@@ -6549,8 +6840,8 @@
     <row r="25" spans="1:7">
       <c r="A25" s="45"/>
       <c r="B25" s="42"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="5" t="s">
         <v>233</v>
       </c>
@@ -6564,10 +6855,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="45"/>
       <c r="B26" s="42"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="21" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -6583,8 +6874,8 @@
     <row r="27" spans="1:7">
       <c r="A27" s="45"/>
       <c r="B27" s="42"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="5" t="s">
         <v>233</v>
       </c>
@@ -6598,8 +6889,8 @@
     <row r="28" spans="1:7">
       <c r="A28" s="45"/>
       <c r="B28" s="42"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="5" t="s">
         <v>233</v>
       </c>
@@ -6613,10 +6904,10 @@
     <row r="29" spans="1:7">
       <c r="A29" s="45"/>
       <c r="B29" s="42"/>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="21" t="s">
         <v>280</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -6632,8 +6923,8 @@
     <row r="30" spans="1:7">
       <c r="A30" s="45"/>
       <c r="B30" s="42"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="5" t="s">
         <v>233</v>
       </c>
@@ -6647,10 +6938,10 @@
     <row r="31" spans="1:7">
       <c r="A31" s="45"/>
       <c r="B31" s="42"/>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="21" t="s">
         <v>283</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -6666,8 +6957,8 @@
     <row r="32" spans="1:7">
       <c r="A32" s="45"/>
       <c r="B32" s="42"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="5" t="s">
         <v>233</v>
       </c>
@@ -6681,8 +6972,8 @@
     <row r="33" spans="1:7">
       <c r="A33" s="45"/>
       <c r="B33" s="42"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="5" t="s">
         <v>233</v>
       </c>
@@ -6722,10 +7013,10 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="41" t="s">
         <v>387</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -6747,10 +7038,10 @@
     <row r="37" spans="1:7">
       <c r="A37" s="45"/>
       <c r="B37" s="42"/>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -6766,8 +7057,8 @@
     <row r="38" spans="1:7">
       <c r="A38" s="45"/>
       <c r="B38" s="42"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="5" t="s">
         <v>233</v>
       </c>
@@ -6781,10 +7072,10 @@
     <row r="39" spans="1:7">
       <c r="A39" s="45"/>
       <c r="B39" s="42"/>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="21" t="s">
         <v>402</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -6800,8 +7091,8 @@
     <row r="40" spans="1:7">
       <c r="A40" s="45"/>
       <c r="B40" s="42"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="5" t="s">
         <v>397</v>
       </c>
@@ -6815,10 +7106,10 @@
     <row r="41" spans="1:7">
       <c r="A41" s="45"/>
       <c r="B41" s="42"/>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="21" t="s">
         <v>403</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -6834,8 +7125,8 @@
     <row r="42" spans="1:7">
       <c r="A42" s="45"/>
       <c r="B42" s="42"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="5" t="s">
         <v>397</v>
       </c>
@@ -6849,8 +7140,8 @@
     <row r="43" spans="1:7">
       <c r="A43" s="46"/>
       <c r="B43" s="43"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="5" t="s">
         <v>76</v>
       </c>
@@ -6871,107 +7162,903 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="A45" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="19" t="s">
+      <c r="A50" s="45"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="45"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="45"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="45"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="45"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="45"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="45"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="45"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="45"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="45"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="45"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="45"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="45"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="45"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="45"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="45"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="46"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="13"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>447</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="45"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="45"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="45"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="45"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="45"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="46"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="13"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="3"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="3"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="3"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="3"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="3"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="3"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="3"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="3"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="3"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="3"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
+  <mergeCells count="58">
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B45:B67"/>
+    <mergeCell ref="A45:A67"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="A2:A34"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="C26:C28"/>
@@ -6988,10 +8075,14 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Atividade 2 - Lista de variáveis _C.xlsx
+++ b/Atividade 2 - Lista de variáveis _C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="571">
   <si>
     <t>Class</t>
   </si>
@@ -2060,6 +2060,420 @@
       </rPr>
       <t xml:space="preserve"> Test the method 'pesquisaSerivcosDoBarbeiro' (if returns the right services of a barber)</t>
     </r>
+  </si>
+  <si>
+    <t>ServicoPrestadoControllerTeste.java</t>
+  </si>
+  <si>
+    <t>DoneServiceControllerTest.java</t>
+  </si>
+  <si>
+    <t>doneService</t>
+  </si>
+  <si>
+    <t>servicoController</t>
+  </si>
+  <si>
+    <t>doneServiceController</t>
+  </si>
+  <si>
+    <t>Instance variable used in the test to get access to the methods of 'ServicoPrestadoController.java'</t>
+  </si>
+  <si>
+    <t>Initialize the atributes of 'servico'(refers to instance above)</t>
+  </si>
+  <si>
+    <t>getInstanceDeServicoPrestadoControllerDeveRetornarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>inserirDeServicoPrestadoControllerDeveEnviarUm</t>
+  </si>
+  <si>
+    <t>includeDoneServiceMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'inserir' from 'ServicoPrestadoController.java'</t>
+    </r>
+  </si>
+  <si>
+    <t>excluirDeServicoPrestadoControllerDeveEnviarUmaservicoprestado</t>
+  </si>
+  <si>
+    <t>deleteDoneServiceMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'excluir' from 'ServicoPrestadoController.java'</t>
+    </r>
+  </si>
+  <si>
+    <t>inserirServicoPrestadoNaoPodePassarServicoPrestadoNullo</t>
+  </si>
+  <si>
+    <t>includeDoneServiceTestForNullArgument</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'inserir' don't accept null arguments</t>
+    </r>
+  </si>
+  <si>
+    <t>excluirServicoPrestadoNaoPodePassarServicoPrestadoNullo</t>
+  </si>
+  <si>
+    <t>deleteDoneServiceTestForNullArgument</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'excluir' don't accept null arguments</t>
+    </r>
+  </si>
+  <si>
+    <t>mostrarServicoPrestadoDeServicoPrestadoControllerDeveMostrarUmServico</t>
+  </si>
+  <si>
+    <t>showRegisteredDoneServices</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'mostrarServicosPrestadosCadastrados' is working</t>
+    </r>
+  </si>
+  <si>
+    <t>queryForDoneServicesResult</t>
+  </si>
+  <si>
+    <t>Used to receive the result from the search for done services on DB</t>
+  </si>
+  <si>
+    <t>CadastrarAgenda.java</t>
+  </si>
+  <si>
+    <t>RegisterPhonebook.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance variable that contains the main panel of class </t>
+  </si>
+  <si>
+    <t>registerAgendaFrame</t>
+  </si>
+  <si>
+    <t>Main frame of class (Window to manage the contacts)</t>
+  </si>
+  <si>
+    <t>CadastrarAgenda</t>
+  </si>
+  <si>
+    <t>RegisterAgenda</t>
+  </si>
+  <si>
+    <t>scroolPane</t>
+  </si>
+  <si>
+    <t>Add a scrool pane to the frame</t>
+  </si>
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>Add a table with 3 fields ('Nome, telefone e descricao') to the frame</t>
+  </si>
+  <si>
+    <t>tableModel</t>
+  </si>
+  <si>
+    <t>Define a default table model with 3 columns</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Intantiated to get access to the method 'mostrarContatosCadastrados'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used to pass as argument to the method 'mostarContatosCadastrados' -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Useless argument on this method. Check methods from AgendaController and AgendaDAO</t>
+    </r>
+  </si>
+  <si>
+    <t>Used to receive the result from the method 'mostrarContatosCadastrados'</t>
+  </si>
+  <si>
+    <t>btnNovo</t>
+  </si>
+  <si>
+    <t>btnNewContact</t>
+  </si>
+  <si>
+    <t>frame (inside 'btnNovo' action)</t>
+  </si>
+  <si>
+    <t>newContactFrame</t>
+  </si>
+  <si>
+    <t>Button that calls a window to register a new contact</t>
+  </si>
+  <si>
+    <t>e (inside 'btnNovo' action)</t>
+  </si>
+  <si>
+    <t>btnPesquisar</t>
+  </si>
+  <si>
+    <t>btnSearchContact</t>
+  </si>
+  <si>
+    <t>Button that calls a window to look for contacts</t>
+  </si>
+  <si>
+    <t>frame (inside 'btnPesquisar' action)</t>
+  </si>
+  <si>
+    <t>searchContactFrame</t>
+  </si>
+  <si>
+    <t>Frame used to open a window to add a new contact (refers to 'NovoContato' class)</t>
+  </si>
+  <si>
+    <t>Frame used to open a window to searh for a contact (refers to 'PesquisarContato' class)</t>
+  </si>
+  <si>
+    <t>Button that calls the class 'Administrativo' (Create a frame to go back in administrative options)</t>
+  </si>
+  <si>
+    <t>Frame used to "go back" to the adiministrative menu (refers to the description above)</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>AlterarTipoServico.java</t>
+  </si>
+  <si>
+    <t>ModifyServiceType.java</t>
+  </si>
+  <si>
+    <t>textFieldPreco</t>
+  </si>
+  <si>
+    <t>textFieldServiceTypeName</t>
+  </si>
+  <si>
+    <t>Text Field that will store the new name of service type</t>
+  </si>
+  <si>
+    <t>Text Field that will store the new price of service type</t>
+  </si>
+  <si>
+    <t>textFieldServiceTypePrice</t>
+  </si>
+  <si>
+    <t>serviceTypeToBeChangedName</t>
+  </si>
+  <si>
+    <t>String that contains the service type name that will be changed</t>
+  </si>
+  <si>
+    <t>modifyServiceTypeFrame</t>
+  </si>
+  <si>
+    <t>Main frame of class (Window to choose the service type to be changed)</t>
+  </si>
+  <si>
+    <t>AlterarTipoServico</t>
+  </si>
+  <si>
+    <t>ModifyServiceType</t>
+  </si>
+  <si>
+    <t>labelNome</t>
+  </si>
+  <si>
+    <t>labelCadeira</t>
+  </si>
+  <si>
+    <t>lblServiceTypeName</t>
+  </si>
+  <si>
+    <t>lblServiceTypePrice</t>
+  </si>
+  <si>
+    <t>Label to textFieldServiceTypeName</t>
+  </si>
+  <si>
+    <t>Label to textFieldServiceTypePrice</t>
+  </si>
+  <si>
+    <t>serviceTypeController</t>
+  </si>
+  <si>
+    <t>Instance used to pass as argument on the method 'pesquisarPorNome' (service type name to search on DB )</t>
+  </si>
+  <si>
+    <t>queryForServicesTypeResult</t>
+  </si>
+  <si>
+    <t>Used to receive the result from the method 'pesquisarPorNome'</t>
+  </si>
+  <si>
+    <t>Intantiated to get access to the method 'pesquisarPorNome' ( Get the current instance of 'TipoServicoController')</t>
+  </si>
+  <si>
+    <t>servicoException</t>
+  </si>
+  <si>
+    <t>Variable that stores a possible exception from 'ServicoException' type</t>
+  </si>
+  <si>
+    <t>buttonSalvar</t>
+  </si>
+  <si>
+    <t>Instance used to set the changes made and then save on DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intantiated to get access to the method 'alterar' </t>
+  </si>
+  <si>
+    <t>Frame used to go back on service types options (called after save changes)</t>
+  </si>
+  <si>
+    <t>buttonLimpar</t>
+  </si>
+  <si>
+    <t>btnClearFields</t>
+  </si>
+  <si>
+    <t>tipoServico (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>tipoServicoController (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>frame (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>e1 (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>k (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>Button that clear all fields from table</t>
+  </si>
+  <si>
+    <t>frame (inside btnLimpar action)</t>
+  </si>
+  <si>
+    <t>NovoTipoServico.java</t>
+  </si>
+  <si>
+    <t>NewServiceType.java</t>
+  </si>
+  <si>
+    <t>textFieldServico</t>
+  </si>
+  <si>
+    <t>Text Field that will store the new name of service type that will replace the old one (where 'nome' on DB)</t>
+  </si>
+  <si>
+    <t>Text Field that will store the new price of service typethat will replace the old one (where 'nome' on DB)</t>
+  </si>
+  <si>
+    <t>newServiceTypeFrame</t>
+  </si>
+  <si>
+    <t>Main frame of class (Window to add a new service type)</t>
+  </si>
+  <si>
+    <t>NovoTipoServico</t>
+  </si>
+  <si>
+    <t>NewServiceType</t>
+  </si>
+  <si>
+    <t>lblServico</t>
+  </si>
+  <si>
+    <t>lblPreco</t>
+  </si>
+  <si>
+    <t>btnSalvar</t>
+  </si>
+  <si>
+    <t>e (inside btnSalvar action)</t>
+  </si>
+  <si>
+    <t>illegalArgumentException</t>
+  </si>
+  <si>
+    <t>Variable that stores a possible exception from 'IllegalArgumentException' type</t>
+  </si>
+  <si>
+    <t>Button that calls the class 'CadastrarTipoServico' (Create a frame to go back in service types options)</t>
+  </si>
+  <si>
+    <t>Frame used to "go back" to the service types menu (refers to the description above)</t>
   </si>
 </sst>
 </file>
@@ -2648,10 +3062,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2661,27 +3096,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2708,6 +3122,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2715,15 +3138,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3026,10 +3440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3089,8 +3503,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
         <v>196</v>
       </c>
@@ -3108,12 +3522,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="30" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -3127,10 +3541,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
         <v>201</v>
       </c>
@@ -3142,10 +3556,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="5" t="s">
         <v>204</v>
       </c>
@@ -3157,10 +3571,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="5" t="s">
         <v>206</v>
       </c>
@@ -3172,10 +3586,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="5" t="s">
         <v>197</v>
       </c>
@@ -3187,10 +3601,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="5" t="s">
         <v>210</v>
       </c>
@@ -3202,10 +3616,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="5" t="s">
         <v>214</v>
       </c>
@@ -3226,10 +3640,10 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="30" t="s">
         <v>289</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3249,12 +3663,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -3268,10 +3682,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>233</v>
       </c>
@@ -3283,12 +3697,12 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="27" t="s">
         <v>294</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -3302,10 +3716,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="5" t="s">
         <v>295</v>
       </c>
@@ -3317,10 +3731,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>299</v>
       </c>
@@ -3332,10 +3746,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="5" t="s">
         <v>304</v>
       </c>
@@ -3347,10 +3761,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="5" t="s">
         <v>305</v>
       </c>
@@ -3362,10 +3776,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="5" t="s">
         <v>310</v>
       </c>
@@ -3377,10 +3791,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="5" t="s">
         <v>311</v>
       </c>
@@ -3392,10 +3806,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="5" t="s">
         <v>314</v>
       </c>
@@ -3407,10 +3821,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="5" t="s">
         <v>317</v>
       </c>
@@ -3422,10 +3836,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="5" t="s">
         <v>320</v>
       </c>
@@ -3437,10 +3851,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="5" t="s">
         <v>322</v>
       </c>
@@ -3452,10 +3866,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="5" t="s">
         <v>325</v>
       </c>
@@ -3467,10 +3881,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="28"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="5" t="s">
         <v>233</v>
       </c>
@@ -3491,16 +3905,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3514,10 +3928,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
       <c r="E30" s="5" t="s">
         <v>331</v>
       </c>
@@ -3529,10 +3943,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
       <c r="E31" s="5" t="s">
         <v>332</v>
       </c>
@@ -3544,10 +3958,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="5" t="s">
         <v>333</v>
       </c>
@@ -3559,10 +3973,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
@@ -3574,12 +3988,12 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="21" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -3593,10 +4007,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
         <v>233</v>
       </c>
@@ -3608,12 +4022,12 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="30" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="27" t="s">
         <v>345</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -3627,10 +4041,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="5" t="s">
         <v>346</v>
       </c>
@@ -3642,10 +4056,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="5" t="s">
         <v>347</v>
       </c>
@@ -3657,10 +4071,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="5" t="s">
         <v>348</v>
       </c>
@@ -3672,10 +4086,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="5" t="s">
         <v>355</v>
       </c>
@@ -3687,10 +4101,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="5" t="s">
         <v>358</v>
       </c>
@@ -3702,10 +4116,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="5" t="s">
         <v>76</v>
       </c>
@@ -3717,10 +4131,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="5" t="s">
         <v>233</v>
       </c>
@@ -3732,10 +4146,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="5" t="s">
         <v>233</v>
       </c>
@@ -3747,10 +4161,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="5" t="s">
         <v>367</v>
       </c>
@@ -3762,10 +4176,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="5" t="s">
         <v>374</v>
       </c>
@@ -3777,10 +4191,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="5" t="s">
         <v>376</v>
       </c>
@@ -3792,10 +4206,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="5" t="s">
         <v>377</v>
       </c>
@@ -3807,10 +4221,10 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="5" t="s">
         <v>378</v>
       </c>
@@ -3822,10 +4236,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="5" t="s">
         <v>379</v>
       </c>
@@ -3837,10 +4251,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="5" t="s">
         <v>317</v>
       </c>
@@ -3852,10 +4266,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
       <c r="E52" s="5" t="s">
         <v>320</v>
       </c>
@@ -3867,12 +4281,12 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="27"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="21" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="24" t="s">
         <v>382</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -3886,10 +4300,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="28"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
       <c r="E54" s="5" t="s">
         <v>383</v>
       </c>
@@ -3900,7 +4314,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="15.75" thickBot="1">
       <c r="A55" s="13"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
@@ -3909,287 +4323,1364 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
+    <row r="56" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A56" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="3"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="3"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="3"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="3"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="3"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="3"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="3"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="3"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="3"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A76" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="3"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="3"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="3"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="22"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="22"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="22"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="22"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="22"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="22"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="22"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="22"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="22"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="22"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="22"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="22"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="23"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A101" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="22"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="22"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="22"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="22"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="22"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="22"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="22"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="28"/>
+      <c r="D108" s="28"/>
+      <c r="E108" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="22"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="22"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="22"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="22"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="22"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="22"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="22"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="22"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="22"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="22"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="23"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="3"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="3"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="3"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="3"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="3"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="3"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="3"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="3"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="3"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="3"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="3"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="3"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="3"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="3"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="3"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="3"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="3"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="3"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="3"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="3"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="3"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="3"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="3"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="3"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="3"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="3"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="3"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="3"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="3"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="46">
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="B101:B119"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D82:D97"/>
+    <mergeCell ref="C82:C97"/>
+    <mergeCell ref="B76:B99"/>
     <mergeCell ref="D15:D27"/>
     <mergeCell ref="C15:C27"/>
     <mergeCell ref="B12:B27"/>
@@ -4210,6 +5701,17 @@
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D36:D52"/>
     <mergeCell ref="C36:C52"/>
+    <mergeCell ref="A56:A74"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D58:D72"/>
+    <mergeCell ref="C58:C72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B56:B74"/>
+    <mergeCell ref="A76:A99"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4220,7 +5722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -4280,10 +5782,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="5" t="s">
         <v>90</v>
       </c>
@@ -4295,10 +5797,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="5" t="s">
         <v>91</v>
       </c>
@@ -4310,10 +5812,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
@@ -4325,10 +5827,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5" t="s">
         <v>92</v>
       </c>
@@ -4340,10 +5842,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5" t="s">
         <v>93</v>
       </c>
@@ -4355,10 +5857,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
@@ -4370,10 +5872,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5" t="s">
         <v>95</v>
       </c>
@@ -4385,12 +5887,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>109</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -4404,10 +5906,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="5" t="s">
         <v>89</v>
       </c>
@@ -4419,10 +5921,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5" t="s">
         <v>90</v>
       </c>
@@ -4434,10 +5936,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5" t="s">
         <v>91</v>
       </c>
@@ -4449,10 +5951,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
@@ -4464,8 +5966,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="10" t="s">
         <v>108</v>
       </c>
@@ -4483,8 +5985,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="7" t="s">
         <v>111</v>
       </c>
@@ -4502,12 +6004,12 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="24" t="s">
         <v>115</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4521,10 +6023,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
@@ -4536,10 +6038,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="5" t="s">
         <v>119</v>
       </c>
@@ -4551,10 +6053,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="5" t="s">
         <v>122</v>
       </c>
@@ -4566,10 +6068,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="5" t="s">
         <v>124</v>
       </c>
@@ -4581,8 +6083,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="7" t="s">
         <v>127</v>
       </c>
@@ -4600,12 +6102,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="24" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -4619,10 +6121,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="5" t="s">
         <v>117</v>
       </c>
@@ -4634,10 +6136,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="5" t="s">
         <v>119</v>
       </c>
@@ -4649,10 +6151,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="5" t="s">
         <v>122</v>
       </c>
@@ -4664,10 +6166,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
@@ -4679,8 +6181,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="7" t="s">
         <v>136</v>
       </c>
@@ -4698,8 +6200,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="7" t="s">
         <v>137</v>
       </c>
@@ -4717,8 +6219,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="7" t="s">
         <v>142</v>
       </c>
@@ -4736,8 +6238,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>143</v>
       </c>
@@ -4755,12 +6257,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="21" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="24" t="s">
         <v>149</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4774,10 +6276,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="5" t="s">
         <v>151</v>
       </c>
@@ -4789,10 +6291,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="27"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="5" t="s">
         <v>117</v>
       </c>
@@ -4804,10 +6306,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="5" t="s">
         <v>124</v>
       </c>
@@ -4819,10 +6321,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="5" t="s">
         <v>122</v>
       </c>
@@ -4834,10 +6336,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="5" t="s">
         <v>154</v>
       </c>
@@ -4858,16 +6360,16 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="C39" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -4881,10 +6383,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="5" t="s">
         <v>161</v>
       </c>
@@ -4896,10 +6398,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="5" t="s">
         <v>162</v>
       </c>
@@ -4911,10 +6413,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="5" t="s">
         <v>163</v>
       </c>
@@ -4926,10 +6428,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="5" t="s">
         <v>164</v>
       </c>
@@ -4941,10 +6443,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
         <v>165</v>
       </c>
@@ -4956,8 +6458,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="10" t="s">
         <v>157</v>
       </c>
@@ -4975,8 +6477,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="5" t="s">
         <v>175</v>
       </c>
@@ -4994,8 +6496,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="5" t="s">
         <v>176</v>
       </c>
@@ -5013,8 +6515,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="5" t="s">
         <v>177</v>
       </c>
@@ -5032,8 +6534,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="5" t="s">
         <v>184</v>
       </c>
@@ -5051,8 +6553,8 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="5" t="s">
         <v>185</v>
       </c>
@@ -5070,8 +6572,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="5" t="s">
         <v>186</v>
       </c>
@@ -5346,7 +6848,7 @@
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -5367,11 +6869,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -5386,9 +6888,9 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5401,11 +6903,11 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -5420,9 +6922,9 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -5435,9 +6937,9 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="36"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
@@ -5450,9 +6952,9 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="36"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
@@ -5465,11 +6967,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="36"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5484,9 +6986,9 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="36"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
@@ -5499,7 +7001,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="36"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
@@ -5518,11 +7020,11 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="36"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="24" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -5537,9 +7039,9 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="36"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="11" t="s">
         <v>44</v>
       </c>
@@ -5552,11 +7054,11 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="36"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="12" t="s">
@@ -5571,9 +7073,9 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="37"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
@@ -5761,7 +7263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -5821,10 +7323,10 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5844,8 +7346,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="10" t="s">
         <v>56</v>
       </c>
@@ -5863,8 +7365,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
         <v>59</v>
       </c>
@@ -5882,12 +7384,12 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -5901,10 +7403,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
@@ -5916,12 +7418,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -5935,10 +7437,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
@@ -5950,12 +7452,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="24" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -5969,10 +7471,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
@@ -5984,10 +7486,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="5" t="s">
         <v>73</v>
       </c>
@@ -5999,10 +7501,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="5" t="s">
         <v>75</v>
       </c>
@@ -6014,10 +7516,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="5" t="s">
         <v>76</v>
       </c>
@@ -6029,12 +7531,12 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="21" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -6048,10 +7550,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
@@ -6063,10 +7565,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="5" t="s">
         <v>73</v>
       </c>
@@ -6078,10 +7580,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="5" t="s">
         <v>75</v>
       </c>
@@ -6093,12 +7595,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="24" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -6112,10 +7614,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="11" t="s">
         <v>44</v>
       </c>
@@ -6127,10 +7629,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
@@ -6142,10 +7644,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="28"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
@@ -6387,8 +7889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6448,12 +7950,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -6467,10 +7969,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="5" t="s">
         <v>223</v>
       </c>
@@ -6482,8 +7984,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7" t="s">
         <v>226</v>
       </c>
@@ -6501,8 +8003,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="7" t="s">
         <v>227</v>
       </c>
@@ -6520,8 +8022,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7" t="s">
         <v>229</v>
       </c>
@@ -6539,12 +8041,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="24" t="s">
         <v>241</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -6558,10 +8060,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5" t="s">
         <v>233</v>
       </c>
@@ -6573,8 +8075,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="7" t="s">
         <v>236</v>
       </c>
@@ -6592,8 +8094,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="7" t="s">
         <v>240</v>
       </c>
@@ -6611,8 +8113,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="7" t="s">
         <v>248</v>
       </c>
@@ -6630,12 +8132,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="24" t="s">
         <v>252</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6649,10 +8151,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="5" t="s">
         <v>233</v>
       </c>
@@ -6664,8 +8166,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="7" t="s">
         <v>253</v>
       </c>
@@ -6683,8 +8185,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="7" t="s">
         <v>256</v>
       </c>
@@ -6702,8 +8204,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7" t="s">
         <v>259</v>
       </c>
@@ -6721,12 +8223,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="21" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="24" t="s">
         <v>263</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -6740,10 +8242,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="5" t="s">
         <v>233</v>
       </c>
@@ -6755,12 +8257,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="24" t="s">
         <v>266</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -6774,10 +8276,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="5" t="s">
         <v>233</v>
       </c>
@@ -6789,10 +8291,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="5" t="s">
         <v>233</v>
       </c>
@@ -6804,12 +8306,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="24" t="s">
         <v>274</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -6823,10 +8325,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="5" t="s">
         <v>233</v>
       </c>
@@ -6838,10 +8340,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="45"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="5" t="s">
         <v>233</v>
       </c>
@@ -6853,12 +8355,12 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="21" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="24" t="s">
         <v>277</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -6872,10 +8374,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="5" t="s">
         <v>233</v>
       </c>
@@ -6887,10 +8389,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="45"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="5" t="s">
         <v>233</v>
       </c>
@@ -6902,12 +8404,12 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="21" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="24" t="s">
         <v>280</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -6921,10 +8423,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="45"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="5" t="s">
         <v>233</v>
       </c>
@@ -6936,12 +8438,12 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="45"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="24" t="s">
         <v>283</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -6955,10 +8457,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="45"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="5" t="s">
         <v>233</v>
       </c>
@@ -6970,10 +8472,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
         <v>233</v>
       </c>
@@ -6985,8 +8487,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="46"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="7" t="s">
         <v>285</v>
       </c>
@@ -7013,10 +8515,10 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="44" t="s">
         <v>387</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -7036,12 +8538,12 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="45"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -7055,10 +8557,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="45"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
         <v>233</v>
       </c>
@@ -7070,12 +8572,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="45"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="24" t="s">
         <v>402</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -7089,10 +8591,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="45"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="5" t="s">
         <v>397</v>
       </c>
@@ -7104,12 +8606,12 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="45"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="21" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="24" t="s">
         <v>403</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -7123,10 +8625,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="45"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="5" t="s">
         <v>397</v>
       </c>
@@ -7138,10 +8640,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="46"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
         <v>76</v>
       </c>
@@ -7162,10 +8664,10 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="44" t="s">
         <v>409</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -7185,12 +8687,12 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="45"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="21" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -7204,10 +8706,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="45"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="5" t="s">
         <v>233</v>
       </c>
@@ -7219,8 +8721,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="45"/>
-      <c r="B48" s="42"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
@@ -7238,8 +8740,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="45"/>
-      <c r="B49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="7" t="s">
         <v>416</v>
       </c>
@@ -7257,12 +8759,12 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="45"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="21" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="24" t="s">
         <v>420</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -7276,10 +8778,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="45"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
         <v>233</v>
       </c>
@@ -7291,12 +8793,12 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="45"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="21" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="24" t="s">
         <v>421</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -7310,10 +8812,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="45"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
       <c r="E53" s="5" t="s">
         <v>233</v>
       </c>
@@ -7325,12 +8827,12 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="45"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="21" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="24" t="s">
         <v>424</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -7344,10 +8846,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="45"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="5" t="s">
         <v>233</v>
       </c>
@@ -7359,12 +8861,12 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="45"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="21" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="24" t="s">
         <v>427</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -7378,10 +8880,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="45"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="5" t="s">
         <v>233</v>
       </c>
@@ -7393,12 +8895,12 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="45"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="21" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="24" t="s">
         <v>430</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -7412,10 +8914,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="45"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="5" t="s">
         <v>233</v>
       </c>
@@ -7427,12 +8929,12 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="45"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="21" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="24" t="s">
         <v>433</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -7446,10 +8948,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="45"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="5" t="s">
         <v>233</v>
       </c>
@@ -7461,12 +8963,12 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="45"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="21" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="24" t="s">
         <v>436</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -7480,10 +8982,10 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="45"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="5" t="s">
         <v>76</v>
       </c>
@@ -7495,12 +8997,12 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="45"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="21" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="24" t="s">
         <v>440</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -7514,10 +9016,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="45"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="5" t="s">
         <v>76</v>
       </c>
@@ -7529,12 +9031,12 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="45"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="21" t="s">
+      <c r="A66" s="42"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="24" t="s">
         <v>444</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -7548,10 +9050,10 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="46"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="5" t="s">
         <v>76</v>
       </c>
@@ -7572,10 +9074,10 @@
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="44" t="s">
         <v>447</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -7595,12 +9097,12 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="45"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="21" t="s">
+      <c r="A70" s="42"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -7614,10 +9116,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="45"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="5" t="s">
         <v>233</v>
       </c>
@@ -7629,12 +9131,12 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="45"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="21" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="24" t="s">
         <v>402</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -7648,10 +9150,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="45"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="5" t="s">
         <v>451</v>
       </c>
@@ -7663,12 +9165,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="45"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="21" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="45"/>
+      <c r="C74" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="24" t="s">
         <v>455</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -7682,10 +9184,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="45"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="5" t="s">
         <v>451</v>
       </c>
@@ -7697,10 +9199,10 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="46"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="5" t="s">
         <v>233</v>
       </c>
@@ -7721,132 +9223,244 @@
       <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="3"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="A78" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="3"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="3"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="3"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="3"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="3"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="3"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="3"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="3"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="3"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="3"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="3"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="3"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="3"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="3"/>
@@ -8024,7 +9638,7 @@
       <c r="G110" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="70">
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D74:D76"/>
@@ -8059,6 +9673,7 @@
     <mergeCell ref="B2:B34"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B36:B43"/>
     <mergeCell ref="A2:A34"/>
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="C26:C28"/>
@@ -8075,7 +9690,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B36:B43"/>
     <mergeCell ref="A36:A43"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="C37:C38"/>
@@ -8083,6 +9697,18 @@
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A78:A90"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Atividade 2 - Lista de variáveis _C.xlsx
+++ b/Atividade 2 - Lista de variáveis _C.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="831">
   <si>
     <t>Class</t>
   </si>
@@ -3401,6 +3401,192 @@
         <scheme val="minor"/>
       </rPr>
       <t>Close the cart generating a new random number that will be returned as the purchase (refers to 'Compra' class)  unique code</t>
+    </r>
+  </si>
+  <si>
+    <t>TipoServicoDAOTeste.java</t>
+  </si>
+  <si>
+    <t>ServiceTypeDAOTest.java</t>
+  </si>
+  <si>
+    <t>tipoServico2</t>
+  </si>
+  <si>
+    <t>servicoDAO</t>
+  </si>
+  <si>
+    <t>serviceType2</t>
+  </si>
+  <si>
+    <t>serviceDAO</t>
+  </si>
+  <si>
+    <t>Instance variable used to test (Used to get access to 'TipoServico'DAO Methods)</t>
+  </si>
+  <si>
+    <t>getInstanceDeTipoServicoDAODeveRetonarInstanciaCorrente</t>
+  </si>
+  <si>
+    <t>inserirDeTipoServicoDAODeveCadastrarUmTipoServico</t>
+  </si>
+  <si>
+    <t>includeServiceTypeMethodTest</t>
+  </si>
+  <si>
+    <t>excluirDeTipoServicoDAODeveEnviarUmTipoServico</t>
+  </si>
+  <si>
+    <t>deleteServiceTypeMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a inclusion of a service type was made right (check the return of method 'inserir')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a exclusion of a service type was made right (check the return of method 'excluir')</t>
+    </r>
+  </si>
+  <si>
+    <t>alterarDeTipoServicoDAODeveEnviarUmTipoServico</t>
+  </si>
+  <si>
+    <t>modifyServiceTypeMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if a modification of a service type was made right (check the return of method 'alterar')</t>
+    </r>
+  </si>
+  <si>
+    <t>inserirDeTipoServicoDAOPassandoUmServicoNulo</t>
+  </si>
+  <si>
+    <t>includeServiceTypeMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <t>excluirDeTipoServicoDAOPassandoUmServicoNulo</t>
+  </si>
+  <si>
+    <t>deleteServiceTypeMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <t>alterarDeTipoServicoDAOPassandoUmServicoNulo</t>
+  </si>
+  <si>
+    <t>modifyServiceTypeMethodTestForNullArgument</t>
+  </si>
+  <si>
+    <t>alterarDeTipoServicoDAOPassandoUmServicoAlteradoNulo</t>
+  </si>
+  <si>
+    <t>modifyServiceTypeMethodTestForNullArgumentChangedService</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if the method 'alterar' don't accept as null argument 'tipoServicoAlterado'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test if the method 'alterar' don't accept as null argument 'tipoServico'</t>
+    </r>
+  </si>
+  <si>
+    <t>mostrarServicosDeTipoServicoDAODeveMostrarServico</t>
+  </si>
+  <si>
+    <t>showRegisteredServicesTypesMethodTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'mostrarTipoServicoCadastrados' (Test if the query result, on field name, is not null) </t>
+    </r>
+  </si>
+  <si>
+    <t>queryForServiceTypesResult</t>
+  </si>
+  <si>
+    <t>Receive the service type name from a query result</t>
+  </si>
+  <si>
+    <t>pesquisarPorNomeDeTipoServicoDAODeveMostrarServico</t>
+  </si>
+  <si>
+    <r>
+      <t>Method name -&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test the method 'pesquisarPorNome' (Test if the query result, on field name, is not null) </t>
     </r>
   </si>
 </sst>
@@ -4001,6 +4187,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4011,9 +4210,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4028,19 +4224,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4061,6 +4260,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4070,32 +4278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4432,10 +4618,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4455,8 +4641,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>195</v>
       </c>
@@ -4474,12 +4660,12 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -4493,10 +4679,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="5" t="s">
         <v>200</v>
       </c>
@@ -4508,10 +4694,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="5" t="s">
         <v>203</v>
       </c>
@@ -4523,10 +4709,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="5" t="s">
         <v>205</v>
       </c>
@@ -4538,10 +4724,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="5" t="s">
         <v>196</v>
       </c>
@@ -4553,10 +4739,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="5" t="s">
         <v>209</v>
       </c>
@@ -4568,10 +4754,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="24"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5" t="s">
         <v>213</v>
       </c>
@@ -4592,10 +4778,10 @@
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="24" t="s">
         <v>288</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -4615,12 +4801,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4634,10 +4820,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="5" t="s">
         <v>232</v>
       </c>
@@ -4649,12 +4835,12 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="32" t="s">
         <v>293</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -4668,10 +4854,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="5" t="s">
         <v>294</v>
       </c>
@@ -4683,10 +4869,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="5" t="s">
         <v>298</v>
       </c>
@@ -4698,10 +4884,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="5" t="s">
         <v>303</v>
       </c>
@@ -4713,10 +4899,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="5" t="s">
         <v>304</v>
       </c>
@@ -4728,10 +4914,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="5" t="s">
         <v>309</v>
       </c>
@@ -4743,10 +4929,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="5" t="s">
         <v>310</v>
       </c>
@@ -4758,10 +4944,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="5" t="s">
         <v>313</v>
       </c>
@@ -4773,10 +4959,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="5" t="s">
         <v>316</v>
       </c>
@@ -4788,10 +4974,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="5" t="s">
         <v>319</v>
       </c>
@@ -4803,10 +4989,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="5" t="s">
         <v>321</v>
       </c>
@@ -4818,10 +5004,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="5" t="s">
         <v>324</v>
       </c>
@@ -4833,10 +5019,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="24"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="5" t="s">
         <v>232</v>
       </c>
@@ -4857,16 +5043,16 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4880,10 +5066,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="5" t="s">
         <v>330</v>
       </c>
@@ -4895,10 +5081,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="5" t="s">
         <v>331</v>
       </c>
@@ -4910,10 +5096,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="5" t="s">
         <v>332</v>
       </c>
@@ -4925,10 +5111,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>19</v>
       </c>
@@ -4940,12 +5126,12 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -4959,10 +5145,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="5" t="s">
         <v>232</v>
       </c>
@@ -4974,12 +5160,12 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="28" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="32" t="s">
         <v>344</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -4993,10 +5179,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="23"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="5" t="s">
         <v>345</v>
       </c>
@@ -5008,10 +5194,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="23"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="5" t="s">
         <v>346</v>
       </c>
@@ -5023,10 +5209,10 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="23"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="5" t="s">
         <v>347</v>
       </c>
@@ -5038,10 +5224,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="5" t="s">
         <v>354</v>
       </c>
@@ -5053,10 +5239,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="5" t="s">
         <v>357</v>
       </c>
@@ -5068,10 +5254,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="5" t="s">
         <v>75</v>
       </c>
@@ -5083,10 +5269,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="23"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="5" t="s">
         <v>232</v>
       </c>
@@ -5098,10 +5284,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="23"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="5" t="s">
         <v>232</v>
       </c>
@@ -5113,10 +5299,10 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="23"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="5" t="s">
         <v>366</v>
       </c>
@@ -5128,10 +5314,10 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="23"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="5" t="s">
         <v>373</v>
       </c>
@@ -5143,10 +5329,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="23"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="5" t="s">
         <v>375</v>
       </c>
@@ -5158,10 +5344,10 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="23"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="5" t="s">
         <v>376</v>
       </c>
@@ -5173,10 +5359,10 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="23"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
       <c r="E49" s="5" t="s">
         <v>377</v>
       </c>
@@ -5188,10 +5374,10 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="23"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="E50" s="5" t="s">
         <v>378</v>
       </c>
@@ -5203,10 +5389,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="23"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="5" t="s">
         <v>316</v>
       </c>
@@ -5218,10 +5404,10 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="23"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="5" t="s">
         <v>319</v>
       </c>
@@ -5233,12 +5419,12 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="23"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="28"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D53" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -5252,10 +5438,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="24"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="5" t="s">
         <v>382</v>
       </c>
@@ -5276,10 +5462,10 @@
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="24" t="s">
         <v>482</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -5299,8 +5485,8 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="23"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="7" t="s">
         <v>195</v>
       </c>
@@ -5318,12 +5504,12 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="23"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="28" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="32" t="s">
         <v>487</v>
       </c>
       <c r="E58" s="9" t="s">
@@ -5337,10 +5523,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="23"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
       <c r="E59" s="5" t="s">
         <v>488</v>
       </c>
@@ -5352,10 +5538,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="23"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
       <c r="E60" s="5" t="s">
         <v>490</v>
       </c>
@@ -5367,10 +5553,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="23"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
       <c r="E61" s="5" t="s">
         <v>494</v>
       </c>
@@ -5382,10 +5568,10 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="23"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
       <c r="E62" s="5" t="s">
         <v>357</v>
       </c>
@@ -5397,10 +5583,10 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="23"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="5" t="s">
         <v>354</v>
       </c>
@@ -5412,10 +5598,10 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="23"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
       <c r="E64" s="5" t="s">
         <v>75</v>
       </c>
@@ -5427,10 +5613,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="23"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
       <c r="E65" s="5" t="s">
         <v>232</v>
       </c>
@@ -5442,10 +5628,10 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="23"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
       <c r="E66" s="5" t="s">
         <v>498</v>
       </c>
@@ -5457,10 +5643,10 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="23"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="5" t="s">
         <v>500</v>
       </c>
@@ -5472,10 +5658,10 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="23"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
       <c r="E68" s="5" t="s">
         <v>503</v>
       </c>
@@ -5487,10 +5673,10 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="23"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
       <c r="E69" s="5" t="s">
         <v>504</v>
       </c>
@@ -5502,10 +5688,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="23"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="5" t="s">
         <v>507</v>
       </c>
@@ -5517,10 +5703,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="23"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
       <c r="E71" s="5" t="s">
         <v>316</v>
       </c>
@@ -5532,10 +5718,10 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="23"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
       <c r="E72" s="5" t="s">
         <v>196</v>
       </c>
@@ -5547,12 +5733,12 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="23"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="25" t="s">
+      <c r="A73" s="28"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D73" s="25" t="s">
+      <c r="D73" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E73" s="5" t="s">
@@ -5566,10 +5752,10 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="24"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="29"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="5" t="s">
         <v>382</v>
       </c>
@@ -5590,16 +5776,16 @@
       <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C76" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="25" t="s">
+      <c r="C76" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -5613,10 +5799,10 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="23"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
       <c r="E77" s="5" t="s">
         <v>330</v>
       </c>
@@ -5628,10 +5814,10 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="23"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="5" t="s">
         <v>516</v>
       </c>
@@ -5643,10 +5829,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="23"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="5" t="s">
         <v>19</v>
       </c>
@@ -5658,12 +5844,12 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="23"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="25" t="s">
+      <c r="A80" s="28"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -5677,10 +5863,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="23"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="5" t="s">
         <v>232</v>
       </c>
@@ -5692,12 +5878,12 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="23"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="28" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="32" t="s">
         <v>525</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="32" t="s">
         <v>526</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -5711,10 +5897,10 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="23"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
       <c r="E83" s="5" t="s">
         <v>527</v>
       </c>
@@ -5726,10 +5912,10 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="23"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
       <c r="E84" s="5" t="s">
         <v>528</v>
       </c>
@@ -5741,10 +5927,10 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="23"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
       <c r="E85" s="5" t="s">
         <v>15</v>
       </c>
@@ -5756,10 +5942,10 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="23"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="5" t="s">
         <v>459</v>
       </c>
@@ -5771,10 +5957,10 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="23"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
       <c r="E87" s="5" t="s">
         <v>75</v>
       </c>
@@ -5786,10 +5972,10 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="23"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
       <c r="E88" s="5" t="s">
         <v>232</v>
       </c>
@@ -5801,10 +5987,10 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="23"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
       <c r="E89" s="5" t="s">
         <v>232</v>
       </c>
@@ -5816,10 +6002,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="23"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
       <c r="E90" s="5" t="s">
         <v>540</v>
       </c>
@@ -5831,10 +6017,10 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="23"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
       <c r="E91" s="5" t="s">
         <v>546</v>
       </c>
@@ -5846,10 +6032,10 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="23"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
       <c r="E92" s="5" t="s">
         <v>547</v>
       </c>
@@ -5861,10 +6047,10 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="23"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
       <c r="E93" s="5" t="s">
         <v>548</v>
       </c>
@@ -5876,10 +6062,10 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="23"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
       <c r="E94" s="5" t="s">
         <v>549</v>
       </c>
@@ -5891,10 +6077,10 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="23"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
       <c r="E95" s="5" t="s">
         <v>550</v>
       </c>
@@ -5906,10 +6092,10 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="23"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
       <c r="E96" s="5" t="s">
         <v>544</v>
       </c>
@@ -5921,10 +6107,10 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="23"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
+      <c r="A97" s="28"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
       <c r="E97" s="5" t="s">
         <v>552</v>
       </c>
@@ -5936,12 +6122,12 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="23"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="25" t="s">
+      <c r="A98" s="28"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E98" s="5" t="s">
@@ -5955,10 +6141,10 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="24"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="5" t="s">
         <v>382</v>
       </c>
@@ -5979,16 +6165,16 @@
       <c r="G100" s="16"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="25" t="s">
+      <c r="C101" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="5" t="s">
@@ -6002,10 +6188,10 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="23"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="5" t="s">
         <v>555</v>
       </c>
@@ -6017,10 +6203,10 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="23"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="5" t="s">
         <v>516</v>
       </c>
@@ -6032,12 +6218,12 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="23"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="25" t="s">
+      <c r="A104" s="28"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="5" t="s">
@@ -6051,10 +6237,10 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="23"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
+      <c r="A105" s="28"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
       <c r="E105" s="5" t="s">
         <v>232</v>
       </c>
@@ -6066,12 +6252,12 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="23"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="28" t="s">
+      <c r="A106" s="28"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="32" t="s">
         <v>561</v>
       </c>
       <c r="E106" s="9" t="s">
@@ -6085,10 +6271,10 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="23"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="29"/>
-      <c r="D107" s="29"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="33"/>
       <c r="E107" s="5" t="s">
         <v>562</v>
       </c>
@@ -6100,10 +6286,10 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="23"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
       <c r="E108" s="5" t="s">
         <v>563</v>
       </c>
@@ -6115,10 +6301,10 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="23"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
       <c r="E109" s="5" t="s">
         <v>564</v>
       </c>
@@ -6130,10 +6316,10 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="23"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
+      <c r="A110" s="28"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="5" t="s">
         <v>546</v>
       </c>
@@ -6145,10 +6331,10 @@
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="23"/>
-      <c r="B111" s="32"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
+      <c r="A111" s="28"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
       <c r="E111" s="5" t="s">
         <v>547</v>
       </c>
@@ -6160,10 +6346,10 @@
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="23"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
+      <c r="A112" s="28"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
       <c r="E112" s="5" t="s">
         <v>548</v>
       </c>
@@ -6175,10 +6361,10 @@
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="23"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
+      <c r="A113" s="28"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="33"/>
+      <c r="D113" s="33"/>
       <c r="E113" s="5" t="s">
         <v>565</v>
       </c>
@@ -6190,10 +6376,10 @@
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="23"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
+      <c r="A114" s="28"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
       <c r="E114" s="5" t="s">
         <v>565</v>
       </c>
@@ -6205,10 +6391,10 @@
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="23"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="29"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
       <c r="E115" s="5" t="s">
         <v>565</v>
       </c>
@@ -6220,10 +6406,10 @@
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="23"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
       <c r="E116" s="5" t="s">
         <v>316</v>
       </c>
@@ -6235,10 +6421,10 @@
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="23"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="30"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
       <c r="E117" s="5" t="s">
         <v>196</v>
       </c>
@@ -6250,12 +6436,12 @@
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="23"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="25" t="s">
+      <c r="A118" s="28"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D118" s="25" t="s">
+      <c r="D118" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E118" s="5" t="s">
@@ -6269,10 +6455,10 @@
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="24"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
       <c r="E119" s="5" t="s">
         <v>382</v>
       </c>
@@ -6293,10 +6479,10 @@
       <c r="G120" s="16"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="24" t="s">
         <v>571</v>
       </c>
       <c r="C121" s="7" t="s">
@@ -6316,12 +6502,12 @@
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="23"/>
-      <c r="B122" s="32"/>
-      <c r="C122" s="25" t="s">
+      <c r="A122" s="28"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D122" s="25" t="s">
+      <c r="D122" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="5" t="s">
@@ -6335,10 +6521,10 @@
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="23"/>
-      <c r="B123" s="32"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
       <c r="E123" s="5" t="s">
         <v>232</v>
       </c>
@@ -6350,12 +6536,12 @@
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="23"/>
-      <c r="B124" s="32"/>
-      <c r="C124" s="28" t="s">
+      <c r="A124" s="28"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="32" t="s">
         <v>575</v>
       </c>
       <c r="E124" s="9" t="s">
@@ -6369,10 +6555,10 @@
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="23"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
+      <c r="A125" s="28"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="5" t="s">
         <v>488</v>
       </c>
@@ -6384,10 +6570,10 @@
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="23"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
+      <c r="A126" s="28"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
       <c r="E126" s="5" t="s">
         <v>490</v>
       </c>
@@ -6399,10 +6585,10 @@
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="23"/>
-      <c r="B127" s="32"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
+      <c r="A127" s="28"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
       <c r="E127" s="5" t="s">
         <v>494</v>
       </c>
@@ -6414,10 +6600,10 @@
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="23"/>
-      <c r="B128" s="32"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="29"/>
+      <c r="A128" s="28"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
       <c r="E128" s="5" t="s">
         <v>459</v>
       </c>
@@ -6429,10 +6615,10 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="23"/>
-      <c r="B129" s="32"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
+      <c r="A129" s="28"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
       <c r="E129" s="5" t="s">
         <v>43</v>
       </c>
@@ -6444,10 +6630,10 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="23"/>
-      <c r="B130" s="32"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
       <c r="E130" s="5" t="s">
         <v>75</v>
       </c>
@@ -6459,10 +6645,10 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="23"/>
-      <c r="B131" s="32"/>
-      <c r="C131" s="29"/>
-      <c r="D131" s="29"/>
+      <c r="A131" s="28"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
       <c r="E131" s="5" t="s">
         <v>582</v>
       </c>
@@ -6474,10 +6660,10 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="23"/>
-      <c r="B132" s="32"/>
-      <c r="C132" s="29"/>
-      <c r="D132" s="29"/>
+      <c r="A132" s="28"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
       <c r="E132" s="5" t="s">
         <v>232</v>
       </c>
@@ -6489,10 +6675,10 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="23"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="29"/>
-      <c r="D133" s="29"/>
+      <c r="A133" s="28"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
       <c r="E133" s="5" t="s">
         <v>232</v>
       </c>
@@ -6504,10 +6690,10 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="23"/>
-      <c r="B134" s="32"/>
-      <c r="C134" s="29"/>
-      <c r="D134" s="29"/>
+      <c r="A134" s="28"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
       <c r="E134" s="5" t="s">
         <v>498</v>
       </c>
@@ -6519,10 +6705,10 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="23"/>
-      <c r="B135" s="32"/>
-      <c r="C135" s="29"/>
-      <c r="D135" s="29"/>
+      <c r="A135" s="28"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
       <c r="E135" s="5" t="s">
         <v>585</v>
       </c>
@@ -6534,10 +6720,10 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="23"/>
-      <c r="B136" s="32"/>
-      <c r="C136" s="29"/>
-      <c r="D136" s="29"/>
+      <c r="A136" s="28"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
       <c r="E136" s="5" t="s">
         <v>504</v>
       </c>
@@ -6549,10 +6735,10 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="23"/>
-      <c r="B137" s="32"/>
-      <c r="C137" s="29"/>
-      <c r="D137" s="29"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
       <c r="E137" s="5" t="s">
         <v>589</v>
       </c>
@@ -6564,10 +6750,10 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="23"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="29"/>
-      <c r="D138" s="29"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
       <c r="E138" s="5" t="s">
         <v>594</v>
       </c>
@@ -6579,10 +6765,10 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="23"/>
-      <c r="B139" s="32"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
+      <c r="A139" s="28"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
       <c r="E139" s="5" t="s">
         <v>597</v>
       </c>
@@ -6592,15 +6778,15 @@
       <c r="G139" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H139" s="50" t="s">
+      <c r="H139" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="23"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="29"/>
-      <c r="D140" s="29"/>
+      <c r="A140" s="28"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
       <c r="E140" s="5" t="s">
         <v>598</v>
       </c>
@@ -6612,10 +6798,10 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="23"/>
-      <c r="B141" s="32"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
+      <c r="A141" s="28"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
       <c r="E141" s="5" t="s">
         <v>599</v>
       </c>
@@ -6627,10 +6813,10 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="23"/>
-      <c r="B142" s="32"/>
-      <c r="C142" s="29"/>
-      <c r="D142" s="29"/>
+      <c r="A142" s="28"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
       <c r="E142" s="5" t="s">
         <v>600</v>
       </c>
@@ -6642,10 +6828,10 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="23"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="29"/>
-      <c r="D143" s="29"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
       <c r="E143" s="5" t="s">
         <v>611</v>
       </c>
@@ -6657,10 +6843,10 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="23"/>
-      <c r="B144" s="32"/>
-      <c r="C144" s="29"/>
-      <c r="D144" s="29"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
       <c r="E144" s="5" t="s">
         <v>617</v>
       </c>
@@ -6672,10 +6858,10 @@
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="23"/>
-      <c r="B145" s="32"/>
-      <c r="C145" s="29"/>
-      <c r="D145" s="29"/>
+      <c r="A145" s="28"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
       <c r="E145" s="5" t="s">
         <v>618</v>
       </c>
@@ -6687,10 +6873,10 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="23"/>
-      <c r="B146" s="32"/>
-      <c r="C146" s="29"/>
-      <c r="D146" s="29"/>
+      <c r="A146" s="28"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
       <c r="E146" s="5" t="s">
         <v>619</v>
       </c>
@@ -6702,10 +6888,10 @@
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="23"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="29"/>
-      <c r="D147" s="29"/>
+      <c r="A147" s="28"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
       <c r="E147" s="5" t="s">
         <v>232</v>
       </c>
@@ -6717,10 +6903,10 @@
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="23"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
       <c r="E148" s="5" t="s">
         <v>232</v>
       </c>
@@ -6732,10 +6918,10 @@
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="23"/>
-      <c r="B149" s="32"/>
-      <c r="C149" s="29"/>
-      <c r="D149" s="29"/>
+      <c r="A149" s="28"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
       <c r="E149" s="5" t="s">
         <v>232</v>
       </c>
@@ -6747,10 +6933,10 @@
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="23"/>
-      <c r="B150" s="32"/>
-      <c r="C150" s="29"/>
-      <c r="D150" s="29"/>
+      <c r="A150" s="28"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
       <c r="E150" s="5" t="s">
         <v>232</v>
       </c>
@@ -6762,10 +6948,10 @@
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="23"/>
-      <c r="B151" s="32"/>
-      <c r="C151" s="29"/>
-      <c r="D151" s="29"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
       <c r="E151" s="5" t="s">
         <v>316</v>
       </c>
@@ -6777,10 +6963,10 @@
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="23"/>
-      <c r="B152" s="32"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="30"/>
+      <c r="A152" s="28"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="5" t="s">
         <v>623</v>
       </c>
@@ -6792,12 +6978,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="23"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="25" t="s">
+      <c r="A153" s="28"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="D153" s="25" t="s">
+      <c r="D153" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E153" s="5" t="s">
@@ -6811,10 +6997,10 @@
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="24"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="27"/>
-      <c r="D154" s="27"/>
+      <c r="A154" s="29"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
       <c r="E154" s="5" t="s">
         <v>382</v>
       </c>
@@ -7259,49 +7445,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B121:B154"/>
-    <mergeCell ref="A121:A154"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D124:D152"/>
-    <mergeCell ref="C124:C152"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="D106:D117"/>
-    <mergeCell ref="C106:C117"/>
-    <mergeCell ref="B101:B119"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A101:A119"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D82:D97"/>
-    <mergeCell ref="C82:C97"/>
-    <mergeCell ref="B76:B99"/>
-    <mergeCell ref="D15:D27"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="B12:B27"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B29:B54"/>
-    <mergeCell ref="A29:A54"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D36:D52"/>
-    <mergeCell ref="C36:C52"/>
     <mergeCell ref="A56:A74"/>
     <mergeCell ref="D76:D79"/>
     <mergeCell ref="C76:C79"/>
@@ -7313,6 +7456,49 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="B56:B74"/>
     <mergeCell ref="A76:A99"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B29:B54"/>
+    <mergeCell ref="A29:A54"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D36:D52"/>
+    <mergeCell ref="C36:C52"/>
+    <mergeCell ref="D15:D27"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="B12:B27"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A101:A119"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D82:D97"/>
+    <mergeCell ref="C82:C97"/>
+    <mergeCell ref="B76:B99"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="C106:C117"/>
+    <mergeCell ref="B101:B119"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B121:B154"/>
+    <mergeCell ref="A121:A154"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D124:D152"/>
+    <mergeCell ref="C124:C152"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7323,7 +7509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
@@ -7360,16 +7546,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -7383,10 +7569,10 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="23"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="5" t="s">
         <v>89</v>
       </c>
@@ -7398,10 +7584,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="23"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="5" t="s">
         <v>90</v>
       </c>
@@ -7413,10 +7599,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
@@ -7428,10 +7614,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="5" t="s">
         <v>91</v>
       </c>
@@ -7443,10 +7629,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>92</v>
       </c>
@@ -7458,10 +7644,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="5" t="s">
         <v>93</v>
       </c>
@@ -7473,10 +7659,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>94</v>
       </c>
@@ -7488,12 +7674,12 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -7507,10 +7693,10 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="5" t="s">
         <v>88</v>
       </c>
@@ -7522,10 +7708,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="5" t="s">
         <v>89</v>
       </c>
@@ -7537,10 +7723,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
@@ -7552,10 +7738,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="5" t="s">
         <v>15</v>
       </c>
@@ -7567,8 +7753,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="10" t="s">
         <v>107</v>
       </c>
@@ -7586,8 +7772,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="7" t="s">
         <v>110</v>
       </c>
@@ -7605,12 +7791,12 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -7624,10 +7810,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="5" t="s">
         <v>116</v>
       </c>
@@ -7639,10 +7825,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="5" t="s">
         <v>118</v>
       </c>
@@ -7654,10 +7840,10 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="5" t="s">
         <v>121</v>
       </c>
@@ -7669,10 +7855,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="5" t="s">
         <v>123</v>
       </c>
@@ -7684,8 +7870,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="7" t="s">
         <v>126</v>
       </c>
@@ -7703,12 +7889,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="30" t="s">
         <v>130</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -7722,10 +7908,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="5" t="s">
         <v>116</v>
       </c>
@@ -7737,10 +7923,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5" t="s">
         <v>118</v>
       </c>
@@ -7752,10 +7938,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="5" t="s">
         <v>121</v>
       </c>
@@ -7767,10 +7953,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="5" t="s">
         <v>123</v>
       </c>
@@ -7782,8 +7968,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="7" t="s">
         <v>135</v>
       </c>
@@ -7801,8 +7987,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="7" t="s">
         <v>136</v>
       </c>
@@ -7820,8 +8006,8 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="7" t="s">
         <v>141</v>
       </c>
@@ -7839,8 +8025,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>142</v>
       </c>
@@ -7858,12 +8044,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="30" t="s">
         <v>148</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -7877,10 +8063,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="23"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="5" t="s">
         <v>150</v>
       </c>
@@ -7892,10 +8078,10 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="23"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="5" t="s">
         <v>116</v>
       </c>
@@ -7907,10 +8093,10 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="23"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="5" t="s">
         <v>123</v>
       </c>
@@ -7922,10 +8108,10 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="23"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="5" t="s">
         <v>121</v>
       </c>
@@ -7937,10 +8123,10 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="24"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="5" t="s">
         <v>153</v>
       </c>
@@ -7961,16 +8147,16 @@
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="25" t="s">
+      <c r="C39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -7984,10 +8170,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="5" t="s">
         <v>160</v>
       </c>
@@ -7999,10 +8185,10 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="23"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="5" t="s">
         <v>161</v>
       </c>
@@ -8014,10 +8200,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="23"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="5" t="s">
         <v>162</v>
       </c>
@@ -8029,10 +8215,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="23"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="5" t="s">
         <v>163</v>
       </c>
@@ -8044,10 +8230,10 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="23"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="5" t="s">
         <v>164</v>
       </c>
@@ -8059,8 +8245,8 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="23"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="10" t="s">
         <v>156</v>
       </c>
@@ -8078,8 +8264,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="23"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="5" t="s">
         <v>174</v>
       </c>
@@ -8097,8 +8283,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="23"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="5" t="s">
         <v>175</v>
       </c>
@@ -8116,8 +8302,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="23"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="5" t="s">
         <v>176</v>
       </c>
@@ -8135,8 +8321,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="23"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="5" t="s">
         <v>183</v>
       </c>
@@ -8154,8 +8340,8 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="23"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="5" t="s">
         <v>184</v>
       </c>
@@ -8173,8 +8359,8 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="24"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="5" t="s">
         <v>185</v>
       </c>
@@ -8201,16 +8387,16 @@
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="C53" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="25" t="s">
+      <c r="C53" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -8224,10 +8410,10 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="23"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="5" t="s">
         <v>660</v>
       </c>
@@ -8239,10 +8425,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="23"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
       <c r="E55" s="5" t="s">
         <v>661</v>
       </c>
@@ -8254,10 +8440,10 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="23"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="5" t="s">
         <v>662</v>
       </c>
@@ -8269,10 +8455,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="23"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="5" t="s">
         <v>663</v>
       </c>
@@ -8284,12 +8470,12 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="23"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -8303,10 +8489,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="23"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="5" t="s">
         <v>675</v>
       </c>
@@ -8318,10 +8504,10 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="23"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="5" t="s">
         <v>676</v>
       </c>
@@ -8333,8 +8519,8 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="23"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="7" t="s">
         <v>682</v>
       </c>
@@ -8352,8 +8538,8 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="23"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="10" t="s">
         <v>683</v>
       </c>
@@ -8371,12 +8557,12 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="23"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="25" t="s">
+      <c r="A63" s="28"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="30" t="s">
         <v>686</v>
       </c>
       <c r="E63" s="5" t="s">
@@ -8390,10 +8576,10 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="23"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
       <c r="E64" s="5" t="s">
         <v>688</v>
       </c>
@@ -8405,10 +8591,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="23"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="5" t="s">
         <v>689</v>
       </c>
@@ -8420,10 +8606,10 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="23"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
       <c r="E66" s="5" t="s">
         <v>690</v>
       </c>
@@ -8435,10 +8621,10 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="23"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
       <c r="E67" s="5" t="s">
         <v>697</v>
       </c>
@@ -8450,10 +8636,10 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="23"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="5" t="s">
         <v>700</v>
       </c>
@@ -8465,10 +8651,10 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="23"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
       <c r="E69" s="5" t="s">
         <v>702</v>
       </c>
@@ -8480,10 +8666,10 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="23"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
       <c r="E70" s="5" t="s">
         <v>706</v>
       </c>
@@ -8495,10 +8681,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="23"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="11" t="s">
         <v>709</v>
       </c>
@@ -8510,10 +8696,10 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="23"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
       <c r="E72" s="5" t="s">
         <v>711</v>
       </c>
@@ -8525,10 +8711,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="23"/>
-      <c r="B73" s="32"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
       <c r="E73" s="5" t="s">
         <v>714</v>
       </c>
@@ -8540,10 +8726,10 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="23"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
       <c r="E74" s="5" t="s">
         <v>717</v>
       </c>
@@ -8555,12 +8741,12 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="23"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="28"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="30" t="s">
         <v>719</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="30" t="s">
         <v>720</v>
       </c>
       <c r="E75" s="5" t="s">
@@ -8574,10 +8760,10 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="23"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="5" t="s">
         <v>722</v>
       </c>
@@ -8589,12 +8775,12 @@
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="23"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="25" t="s">
+      <c r="A77" s="28"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="30" t="s">
         <v>726</v>
       </c>
       <c r="E77" s="5" t="s">
@@ -8608,10 +8794,10 @@
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="23"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="35"/>
       <c r="E78" s="5" t="s">
         <v>727</v>
       </c>
@@ -8623,10 +8809,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="23"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="5" t="s">
         <v>731</v>
       </c>
@@ -8638,10 +8824,10 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="23"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
       <c r="E80" s="5" t="s">
         <v>706</v>
       </c>
@@ -8653,10 +8839,10 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="23"/>
-      <c r="B81" s="32"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
       <c r="E81" s="5" t="s">
         <v>733</v>
       </c>
@@ -8668,12 +8854,12 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="23"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="51" t="s">
+      <c r="A82" s="28"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="38" t="s">
         <v>736</v>
       </c>
-      <c r="D82" s="51" t="s">
+      <c r="D82" s="38" t="s">
         <v>737</v>
       </c>
       <c r="E82" s="11" t="s">
@@ -8682,15 +8868,15 @@
       <c r="F82" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="23" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="23"/>
-      <c r="B83" s="32"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="53"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
       <c r="E83" s="11" t="s">
         <v>727</v>
       </c>
@@ -8702,10 +8888,10 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="23"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
       <c r="E84" s="11" t="s">
         <v>731</v>
       </c>
@@ -8717,10 +8903,10 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="23"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="11" t="s">
         <v>706</v>
       </c>
@@ -8732,10 +8918,10 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="23"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
       <c r="E86" s="11" t="s">
         <v>733</v>
       </c>
@@ -8747,8 +8933,8 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="23"/>
-      <c r="B87" s="32"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="7" t="s">
         <v>739</v>
       </c>
@@ -8766,12 +8952,12 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="23"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="25" t="s">
+      <c r="A88" s="28"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="30" t="s">
         <v>742</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D88" s="30" t="s">
         <v>743</v>
       </c>
       <c r="E88" s="5" t="s">
@@ -8785,10 +8971,10 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="23"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
       <c r="E89" s="5" t="s">
         <v>744</v>
       </c>
@@ -8800,10 +8986,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="23"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="A90" s="28"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
       <c r="E90" s="5" t="s">
         <v>731</v>
       </c>
@@ -8815,10 +9001,10 @@
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="23"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
       <c r="E91" s="5" t="s">
         <v>747</v>
       </c>
@@ -8830,10 +9016,10 @@
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="23"/>
-      <c r="B92" s="32"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
       <c r="E92" s="5" t="s">
         <v>746</v>
       </c>
@@ -8845,10 +9031,10 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="23"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
       <c r="E93" s="5" t="s">
         <v>750</v>
       </c>
@@ -8860,10 +9046,10 @@
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="23"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
       <c r="E94" s="5" t="s">
         <v>751</v>
       </c>
@@ -8875,10 +9061,10 @@
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="23"/>
-      <c r="B95" s="32"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
       <c r="E95" s="5" t="s">
         <v>758</v>
       </c>
@@ -8890,10 +9076,10 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="23"/>
-      <c r="B96" s="32"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
+      <c r="A96" s="28"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="5" t="s">
         <v>761</v>
       </c>
@@ -8905,12 +9091,12 @@
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="23"/>
-      <c r="B97" s="32"/>
-      <c r="C97" s="25" t="s">
+      <c r="A97" s="28"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="30" t="s">
         <v>764</v>
       </c>
-      <c r="D97" s="25" t="s">
+      <c r="D97" s="30" t="s">
         <v>765</v>
       </c>
       <c r="E97" s="5" t="s">
@@ -8924,10 +9110,10 @@
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="23"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="A98" s="28"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
       <c r="E98" s="5" t="s">
         <v>746</v>
       </c>
@@ -8939,10 +9125,10 @@
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="23"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="A99" s="28"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
       <c r="E99" s="5" t="s">
         <v>766</v>
       </c>
@@ -8954,10 +9140,10 @@
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="23"/>
-      <c r="B100" s="32"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="A100" s="28"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
       <c r="E100" s="5" t="s">
         <v>731</v>
       </c>
@@ -8969,10 +9155,10 @@
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="23"/>
-      <c r="B101" s="32"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
       <c r="E101" s="5" t="s">
         <v>767</v>
       </c>
@@ -8984,10 +9170,10 @@
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="23"/>
-      <c r="B102" s="32"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
       <c r="E102" s="5" t="s">
         <v>768</v>
       </c>
@@ -8999,10 +9185,10 @@
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="23"/>
-      <c r="B103" s="32"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
       <c r="E103" s="5" t="s">
         <v>769</v>
       </c>
@@ -9014,10 +9200,10 @@
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="23"/>
-      <c r="B104" s="32"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
+      <c r="A104" s="28"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="5" t="s">
         <v>160</v>
       </c>
@@ -9029,12 +9215,12 @@
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="23"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="25" t="s">
+      <c r="A105" s="28"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="D105" s="25" t="s">
+      <c r="D105" s="30" t="s">
         <v>781</v>
       </c>
       <c r="E105" s="5" t="s">
@@ -9048,10 +9234,10 @@
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="23"/>
-      <c r="B106" s="32"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
+      <c r="A106" s="28"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="35"/>
       <c r="E106" s="5" t="s">
         <v>783</v>
       </c>
@@ -9063,10 +9249,10 @@
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="23"/>
-      <c r="B107" s="32"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
+      <c r="A107" s="28"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
       <c r="E107" s="5" t="s">
         <v>786</v>
       </c>
@@ -9078,10 +9264,10 @@
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="23"/>
-      <c r="B108" s="32"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
+      <c r="A108" s="28"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
       <c r="E108" s="5" t="s">
         <v>596</v>
       </c>
@@ -9093,12 +9279,12 @@
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="23"/>
-      <c r="B109" s="32"/>
-      <c r="C109" s="25" t="s">
+      <c r="A109" s="28"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D109" s="30" t="s">
         <v>792</v>
       </c>
       <c r="E109" s="5" t="s">
@@ -9112,10 +9298,10 @@
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="24"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
       <c r="E110" s="5" t="s">
         <v>793</v>
       </c>
@@ -9236,6 +9422,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="B2:B37"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D63:D74"/>
+    <mergeCell ref="C63:C74"/>
     <mergeCell ref="D109:D110"/>
     <mergeCell ref="C109:C110"/>
     <mergeCell ref="B53:B110"/>
@@ -9252,28 +9460,6 @@
     <mergeCell ref="C77:C81"/>
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="D82:D86"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D63:D74"/>
-    <mergeCell ref="C63:C74"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="C32:C37"/>
-    <mergeCell ref="B2:B37"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9284,7 +9470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -9323,10 +9509,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -9346,12 +9532,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -9365,10 +9551,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
@@ -9380,12 +9566,12 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="25" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -9399,10 +9585,10 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
@@ -9414,10 +9600,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
@@ -9429,10 +9615,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
@@ -9444,12 +9630,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -9463,10 +9649,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
@@ -9478,8 +9664,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="10" t="s">
         <v>38</v>
       </c>
@@ -9497,8 +9683,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="21" t="s">
         <v>58</v>
       </c>
@@ -9516,12 +9702,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -9535,10 +9721,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="11" t="s">
         <v>43</v>
       </c>
@@ -9550,12 +9736,12 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -9569,10 +9755,10 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="38"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="5" t="s">
         <v>43</v>
       </c>
@@ -9593,10 +9779,10 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="24" t="s">
         <v>625</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -9616,8 +9802,8 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
         <v>627</v>
       </c>
@@ -9635,8 +9821,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="21" t="s">
         <v>58</v>
       </c>
@@ -9654,12 +9840,12 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="30" t="s">
         <v>630</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -9673,10 +9859,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5" t="s">
         <v>90</v>
       </c>
@@ -9688,12 +9874,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="30" t="s">
         <v>635</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -9707,10 +9893,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="23"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="5" t="s">
         <v>19</v>
       </c>
@@ -9722,10 +9908,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5" t="s">
         <v>90</v>
       </c>
@@ -9737,10 +9923,10 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="11" t="s">
         <v>641</v>
       </c>
@@ -9752,12 +9938,12 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="30" t="s">
         <v>644</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -9771,10 +9957,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="5" t="s">
         <v>90</v>
       </c>
@@ -9786,8 +9972,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="23"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="7" t="s">
         <v>66</v>
       </c>
@@ -9805,12 +9991,12 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="30" t="s">
         <v>650</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="30" t="s">
         <v>651</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -9824,10 +10010,10 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="11" t="s">
         <v>90</v>
       </c>
@@ -9839,12 +10025,12 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="25" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="30" t="s">
         <v>653</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -9858,10 +10044,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="24"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>90</v>
       </c>
@@ -9919,6 +10105,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A18:A33"/>
     <mergeCell ref="D27:D28"/>
@@ -9931,18 +10129,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D23:D26"/>
     <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A2:A16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9994,14 +10180,14 @@
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13"/>
@@ -10013,10 +10199,10 @@
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -10036,8 +10222,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>55</v>
       </c>
@@ -10055,8 +10241,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
         <v>58</v>
       </c>
@@ -10074,12 +10260,12 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="25" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="30" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -10093,10 +10279,10 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="23"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
@@ -10108,12 +10294,12 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="25" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="30" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -10127,10 +10313,10 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
@@ -10142,12 +10328,12 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="23"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="30" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -10161,10 +10347,10 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="23"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
@@ -10176,10 +10362,10 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>72</v>
       </c>
@@ -10191,10 +10377,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="23"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="5" t="s">
         <v>74</v>
       </c>
@@ -10206,10 +10392,10 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="23"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="5" t="s">
         <v>75</v>
       </c>
@@ -10221,12 +10407,12 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="23"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -10240,10 +10426,10 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="5" t="s">
         <v>78</v>
       </c>
@@ -10255,10 +10441,10 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="23"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="5" t="s">
         <v>72</v>
       </c>
@@ -10270,10 +10456,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
         <v>74</v>
       </c>
@@ -10285,12 +10471,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="30" t="s">
         <v>80</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -10304,10 +10490,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="11" t="s">
         <v>43</v>
       </c>
@@ -10319,10 +10505,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="23"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="5" t="s">
         <v>72</v>
       </c>
@@ -10334,10 +10520,10 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="24"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="5" t="s">
         <v>75</v>
       </c>
@@ -10577,10 +10763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10617,10 +10803,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>217</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -10640,12 +10826,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="25" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="30" t="s">
         <v>220</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -10659,10 +10845,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="5" t="s">
         <v>222</v>
       </c>
@@ -10674,8 +10860,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="7" t="s">
         <v>225</v>
       </c>
@@ -10693,8 +10879,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="7" t="s">
         <v>226</v>
       </c>
@@ -10712,8 +10898,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="7" t="s">
         <v>228</v>
       </c>
@@ -10731,12 +10917,12 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="25" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="30" t="s">
         <v>240</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -10750,10 +10936,10 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="5" t="s">
         <v>232</v>
       </c>
@@ -10765,8 +10951,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="7" t="s">
         <v>235</v>
       </c>
@@ -10784,8 +10970,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="7" t="s">
         <v>239</v>
       </c>
@@ -10803,8 +10989,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="7" t="s">
         <v>247</v>
       </c>
@@ -10822,12 +11008,12 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="30" t="s">
         <v>251</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -10841,10 +11027,10 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="43"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="5" t="s">
         <v>232</v>
       </c>
@@ -10856,8 +11042,8 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="7" t="s">
         <v>252</v>
       </c>
@@ -10875,8 +11061,8 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="7" t="s">
         <v>255</v>
       </c>
@@ -10894,8 +11080,8 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="43"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="7" t="s">
         <v>258</v>
       </c>
@@ -10913,12 +11099,12 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="43"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="30" t="s">
         <v>262</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -10932,10 +11118,10 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="5" t="s">
         <v>232</v>
       </c>
@@ -10947,12 +11133,12 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="30" t="s">
         <v>265</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -10966,10 +11152,10 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="43"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="5" t="s">
         <v>232</v>
       </c>
@@ -10981,10 +11167,10 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="5" t="s">
         <v>232</v>
       </c>
@@ -10996,12 +11182,12 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="43"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="25" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="30" t="s">
         <v>273</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -11015,10 +11201,10 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="43"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="5" t="s">
         <v>232</v>
       </c>
@@ -11030,10 +11216,10 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="43"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="5" t="s">
         <v>232</v>
       </c>
@@ -11045,12 +11231,12 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="30" t="s">
         <v>276</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -11064,10 +11250,10 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="5" t="s">
         <v>232</v>
       </c>
@@ -11079,10 +11265,10 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="5" t="s">
         <v>232</v>
       </c>
@@ -11094,12 +11280,12 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="30" t="s">
         <v>279</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -11113,10 +11299,10 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5" t="s">
         <v>232</v>
       </c>
@@ -11128,12 +11314,12 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="30" t="s">
         <v>282</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -11147,10 +11333,10 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="5" t="s">
         <v>232</v>
       </c>
@@ -11162,10 +11348,10 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="43"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="5" t="s">
         <v>232</v>
       </c>
@@ -11177,8 +11363,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="44"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="7" t="s">
         <v>284</v>
       </c>
@@ -11205,10 +11391,10 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="47" t="s">
         <v>386</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -11228,12 +11414,12 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="43"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -11247,10 +11433,10 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="43"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="5" t="s">
         <v>232</v>
       </c>
@@ -11262,12 +11448,12 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="43"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="30" t="s">
         <v>401</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -11281,10 +11467,10 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="43"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="5" t="s">
         <v>396</v>
       </c>
@@ -11296,12 +11482,12 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="43"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="30" t="s">
         <v>402</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -11315,10 +11501,10 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="43"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="5" t="s">
         <v>396</v>
       </c>
@@ -11330,10 +11516,10 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="44"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="5" t="s">
         <v>75</v>
       </c>
@@ -11354,10 +11540,10 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="47" t="s">
         <v>408</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -11377,12 +11563,12 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="43"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="25" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -11396,10 +11582,10 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="43"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="5" t="s">
         <v>232</v>
       </c>
@@ -11411,8 +11597,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="43"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
@@ -11430,8 +11616,8 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="43"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="7" t="s">
         <v>415</v>
       </c>
@@ -11449,12 +11635,12 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="43"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="30" t="s">
         <v>419</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -11468,10 +11654,10 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="43"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="5" t="s">
         <v>232</v>
       </c>
@@ -11483,12 +11669,12 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="43"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="30" t="s">
         <v>420</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -11502,10 +11688,10 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="43"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="5" t="s">
         <v>232</v>
       </c>
@@ -11517,12 +11703,12 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="43"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="30" t="s">
         <v>423</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -11536,10 +11722,10 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="43"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="5" t="s">
         <v>232</v>
       </c>
@@ -11551,12 +11737,12 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="43"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="25" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="30" t="s">
         <v>426</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -11570,10 +11756,10 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="43"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="5" t="s">
         <v>232</v>
       </c>
@@ -11585,12 +11771,12 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="43"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="51"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="30" t="s">
         <v>429</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -11604,10 +11790,10 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="43"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="5" t="s">
         <v>232</v>
       </c>
@@ -11619,12 +11805,12 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="43"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="25" t="s">
+      <c r="A60" s="51"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="30" t="s">
         <v>432</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -11638,10 +11824,10 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="43"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="5" t="s">
         <v>232</v>
       </c>
@@ -11653,12 +11839,12 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="43"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="25" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="30" t="s">
         <v>435</v>
       </c>
       <c r="E62" s="5" t="s">
@@ -11672,10 +11858,10 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="43"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="5" t="s">
         <v>75</v>
       </c>
@@ -11687,12 +11873,12 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="43"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="25" t="s">
+      <c r="A64" s="51"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="30" t="s">
         <v>439</v>
       </c>
       <c r="E64" s="5" t="s">
@@ -11706,10 +11892,10 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="43"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
       <c r="E65" s="5" t="s">
         <v>75</v>
       </c>
@@ -11721,12 +11907,12 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="43"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="25" t="s">
+      <c r="A66" s="51"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="30" t="s">
         <v>443</v>
       </c>
       <c r="E66" s="5" t="s">
@@ -11740,10 +11926,10 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="44"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="5" t="s">
         <v>75</v>
       </c>
@@ -11764,10 +11950,10 @@
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="42" t="s">
+      <c r="A69" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="47" t="s">
         <v>446</v>
       </c>
       <c r="C69" s="7" t="s">
@@ -11787,12 +11973,12 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="43"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="25" t="s">
+      <c r="A70" s="51"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="D70" s="25" t="s">
+      <c r="D70" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="5" t="s">
@@ -11806,10 +11992,10 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="43"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="5" t="s">
         <v>232</v>
       </c>
@@ -11821,12 +12007,12 @@
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="43"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="51"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="30" t="s">
         <v>401</v>
       </c>
       <c r="E72" s="5" t="s">
@@ -11840,10 +12026,10 @@
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="43"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
       <c r="E73" s="5" t="s">
         <v>450</v>
       </c>
@@ -11855,12 +12041,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="43"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="25" t="s">
+      <c r="A74" s="51"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="30" t="s">
         <v>452</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="30" t="s">
         <v>454</v>
       </c>
       <c r="E74" s="5" t="s">
@@ -11874,10 +12060,10 @@
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="43"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
       <c r="E75" s="5" t="s">
         <v>450</v>
       </c>
@@ -11889,10 +12075,10 @@
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="44"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="5" t="s">
         <v>232</v>
       </c>
@@ -11913,16 +12099,16 @@
       <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="25" t="s">
+      <c r="C78" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="5" t="s">
@@ -11936,10 +12122,10 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="43"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="5" t="s">
         <v>459</v>
       </c>
@@ -11951,8 +12137,8 @@
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="43"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="48"/>
       <c r="C80" s="7" t="s">
         <v>390</v>
       </c>
@@ -11970,8 +12156,8 @@
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="43"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="48"/>
       <c r="C81" s="7" t="s">
         <v>463</v>
       </c>
@@ -11989,12 +12175,12 @@
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="43"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="25" t="s">
+      <c r="A82" s="51"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="30" t="s">
         <v>465</v>
       </c>
       <c r="E82" s="5" t="s">
@@ -12008,10 +12194,10 @@
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="43"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="5" t="s">
         <v>232</v>
       </c>
@@ -12023,12 +12209,12 @@
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="43"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="51"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="30" t="s">
         <v>468</v>
       </c>
       <c r="E84" s="5" t="s">
@@ -12042,10 +12228,10 @@
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="43"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="5" t="s">
         <v>232</v>
       </c>
@@ -12057,12 +12243,12 @@
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="43"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="25" t="s">
+      <c r="A86" s="51"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="D86" s="25" t="s">
+      <c r="D86" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E86" s="5" t="s">
@@ -12076,10 +12262,10 @@
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="43"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="5" t="s">
         <v>232</v>
       </c>
@@ -12091,8 +12277,8 @@
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="43"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="7" t="s">
         <v>473</v>
       </c>
@@ -12110,12 +12296,12 @@
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="43"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="51"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="D89" s="25" t="s">
+      <c r="D89" s="30" t="s">
         <v>477</v>
       </c>
       <c r="E89" s="5" t="s">
@@ -12129,10 +12315,10 @@
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="44"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="49"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
       <c r="E90" s="5" t="s">
         <v>75</v>
       </c>
@@ -12153,187 +12339,599 @@
       <c r="G91" s="16"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="3"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
+      <c r="A92" s="50" t="s">
+        <v>797</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>798</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="3"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="19" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="51"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="51"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="51"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>806</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="51"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="51"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="51"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="51"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="51"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="51"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="51"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="51"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="51"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="51"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="51"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="51"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="30" t="s">
+        <v>820</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="51"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="51"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="51"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="51"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="51"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="51"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="51"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="51"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="52"/>
+      <c r="B117" s="49"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="13"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="3"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="3"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="3"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="3"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="3"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="3"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="3"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="3"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="3"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="3"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="3"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="3"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="3"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="3"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="3"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="3"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="3"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="3"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="3"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B69:B76"/>
+  <mergeCells count="92">
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="B92:B117"/>
+    <mergeCell ref="A92:A117"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A78:A90"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B78:B90"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="A2:A34"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="B45:B67"/>
@@ -12350,55 +12948,11 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B2:B34"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="A2:A34"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A78:A90"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B78:B90"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B69:B76"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
